--- a/FinancialPlanner/data/Macro_data_poland.xlsx
+++ b/FinancialPlanner/data/Macro_data_poland.xlsx
@@ -1,28 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mszczecinski\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matsz\programowanie\Optymalizacja_portfela\FinancialPlanner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5393CE-22C8-4C88-9A93-D0D02A78FB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476D082D-4ACC-42DC-88DB-452CBECF4D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Pupulation" sheetId="4" r:id="rId3"/>
+    <sheet name="Pupulation" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t>observation_date</t>
+  </si>
+  <si>
+    <t>POPTOTPLA647NWDB</t>
+  </si>
+  <si>
+    <t>NGDPRSAXDCPLQ</t>
+  </si>
+  <si>
+    <t>IRLTLT01PLQ156N</t>
+  </si>
+  <si>
+    <t>IR3TIB01PLQ156N</t>
+  </si>
+  <si>
+    <t>NGDPDSAIXPLQ</t>
+  </si>
   <si>
     <t>FRED Graph Observations</t>
   </si>
@@ -42,28 +60,10 @@
     <t>File Created: 2025-10-29 4:11 am CDT</t>
   </si>
   <si>
-    <t>NGDPRSAXDCPLQ</t>
-  </si>
-  <si>
     <t>Real Gross Domestic Product for Poland, Millions of Domestic Currency, Quarterly, Seasonally Adjusted</t>
   </si>
   <si>
     <t>Data Updated: 2025-09-01</t>
-  </si>
-  <si>
-    <t>observation_date</t>
-  </si>
-  <si>
-    <t>IRLTLT01PLQ156N</t>
-  </si>
-  <si>
-    <t>IR3TIB01PLQ156N</t>
-  </si>
-  <si>
-    <t>POPTOTPLA647NWDB</t>
-  </si>
-  <si>
-    <t>NGDPDSAIXPLQ</t>
   </si>
 </sst>
 </file>
@@ -71,13 +71,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="0.000000000"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="0.0000000000000000"/>
-    <numFmt numFmtId="171" formatCode="0.00000000000000000"/>
-    <numFmt numFmtId="172" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000000000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000000000000000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00000000000000000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,10 +88,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -112,43 +117,85 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -168,9 +215,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -208,7 +255,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -280,7 +327,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -301,7 +348,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -312,31 +358,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -358,7 +404,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -416,7 +462,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -429,13 +475,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -454,56 +499,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="85.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="91.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:3" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:3" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
+      <c r="B8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -513,2046 +562,1688 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E124"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E109" sqref="A105:E109"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:XFD99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.08984375" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>34700</v>
-      </c>
-      <c r="B2" s="2">
-        <v>186074.93830673501</v>
-      </c>
-      <c r="D2" s="7">
-        <v>29.71</v>
-      </c>
-      <c r="E2" s="10">
-        <v>43.868498946504502</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>34790</v>
-      </c>
-      <c r="B3" s="2">
-        <v>189496.34112509101</v>
-      </c>
-      <c r="D3" s="7">
-        <v>28.856666666666701</v>
-      </c>
-      <c r="E3" s="10">
-        <v>45.165695492835098</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>34881</v>
-      </c>
-      <c r="B4" s="2">
-        <v>194798.44486190801</v>
-      </c>
-      <c r="D4" s="7">
-        <v>26.526666666666699</v>
-      </c>
-      <c r="E4" s="10">
-        <v>46.404207813629696</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>34973</v>
-      </c>
-      <c r="B5" s="2">
-        <v>197111.09316281299</v>
-      </c>
-      <c r="D5" s="7">
-        <v>25.6666666666667</v>
-      </c>
-      <c r="E5" s="10">
-        <v>45.184699350421099</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>35065</v>
-      </c>
-      <c r="B6" s="2">
-        <v>201310.824186429</v>
-      </c>
-      <c r="D6" s="7">
-        <v>22.7566666666667</v>
-      </c>
-      <c r="E6" s="10">
-        <v>50.115846794449503</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>35156</v>
-      </c>
-      <c r="B7" s="2">
-        <v>205351.17804599501</v>
-      </c>
-      <c r="D7" s="7">
-        <v>22.03</v>
-      </c>
-      <c r="E7" s="10">
-        <v>51.622244453305697</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>35247</v>
-      </c>
-      <c r="B8" s="2">
-        <v>207615.79487280201</v>
-      </c>
-      <c r="D8" s="7">
-        <v>19.883333333333301</v>
-      </c>
-      <c r="E8" s="10">
-        <v>53.451538400902599</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>35339</v>
-      </c>
-      <c r="B9" s="2">
-        <v>200473.29634963299</v>
-      </c>
-      <c r="D9" s="7">
-        <v>20.663333333333309</v>
-      </c>
-      <c r="E9" s="10">
-        <v>57.517001135801102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>35431</v>
-      </c>
-      <c r="B10" s="2">
-        <v>212850.469809445</v>
-      </c>
-      <c r="D10" s="7">
-        <v>21.773333333333301</v>
-      </c>
-      <c r="E10" s="10">
-        <v>57.645067324323598</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>35521</v>
-      </c>
-      <c r="B11" s="2">
-        <v>215804.57340865399</v>
-      </c>
-      <c r="D11" s="7">
-        <v>22.13</v>
-      </c>
-      <c r="E11" s="10">
-        <v>59.563763210499502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>35612</v>
-      </c>
-      <c r="B12" s="2">
-        <v>216592.642262507</v>
-      </c>
-      <c r="D12" s="7">
-        <v>24.226666666666699</v>
-      </c>
-      <c r="E12" s="10">
-        <v>61.567723956141002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>35704</v>
-      </c>
-      <c r="B13" s="2">
-        <v>220337.08193550099</v>
-      </c>
-      <c r="D13" s="7">
-        <v>24.31</v>
-      </c>
-      <c r="E13" s="10">
-        <v>62.632707848636201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>35796</v>
-      </c>
-      <c r="B14" s="2">
-        <v>224635.562982787</v>
-      </c>
-      <c r="D14" s="7">
-        <v>24.253333333333309</v>
-      </c>
-      <c r="E14" s="10">
-        <v>64.652155977462698</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>35886</v>
-      </c>
-      <c r="B15" s="2">
-        <v>224642.95244034001</v>
-      </c>
-      <c r="D15" s="7">
-        <v>21.8066666666667</v>
-      </c>
-      <c r="E15" s="10">
-        <v>66.451361551637504</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>35977</v>
-      </c>
-      <c r="B16" s="2">
-        <v>226832.24718276699</v>
-      </c>
-      <c r="D16" s="7">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="E16" s="10">
-        <v>67.901778320871301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>36069</v>
-      </c>
-      <c r="B17" s="2">
-        <v>227571.36088032901</v>
-      </c>
-      <c r="D17" s="7">
-        <v>15.16</v>
-      </c>
-      <c r="E17" s="10">
-        <v>69.191632853032402</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
-        <v>36161</v>
-      </c>
-      <c r="B18" s="2">
-        <v>229380.686356513</v>
-      </c>
-      <c r="D18" s="7">
-        <v>12.706666666666701</v>
-      </c>
-      <c r="E18" s="10">
-        <v>69.116036121022503</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
-        <v>36251</v>
-      </c>
-      <c r="B19" s="2">
-        <v>234255.20920853299</v>
-      </c>
-      <c r="D19" s="7">
-        <v>13.033333333333299</v>
-      </c>
-      <c r="E19" s="10">
-        <v>70.239497042900098</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
-        <v>36342</v>
-      </c>
-      <c r="B20" s="2">
-        <v>238950.201830448</v>
-      </c>
-      <c r="D20" s="7">
-        <v>14.47</v>
-      </c>
-      <c r="E20" s="10">
-        <v>71.553805648457597</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
-        <v>36434</v>
-      </c>
-      <c r="B21" s="2">
-        <v>242600.09003520099</v>
-      </c>
-      <c r="D21" s="7">
-        <v>18.503333333333309</v>
-      </c>
-      <c r="E21" s="10">
-        <v>74.219586672229298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
-        <v>36526</v>
-      </c>
-      <c r="B22" s="2">
-        <v>244325.94822947501</v>
-      </c>
-      <c r="D22" s="7">
-        <v>18.0766666666667</v>
-      </c>
-      <c r="E22" s="10">
-        <v>74.388921303607802</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
-        <v>36617</v>
-      </c>
-      <c r="B23" s="2">
-        <v>246997.405077264</v>
-      </c>
-      <c r="D23" s="7">
-        <v>18.5133333333333</v>
-      </c>
-      <c r="E23" s="10">
-        <v>75.448587700615207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
-        <v>36708</v>
-      </c>
-      <c r="B24" s="2">
-        <v>247797.73371296801</v>
-      </c>
-      <c r="D24" s="7">
-        <v>19.226666666666699</v>
-      </c>
-      <c r="E24" s="10">
-        <v>76.635073069425104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
-        <v>36800</v>
-      </c>
-      <c r="B25" s="2">
-        <v>252446.7941385</v>
-      </c>
-      <c r="D25" s="7">
-        <v>19.683333333333302</v>
-      </c>
-      <c r="E25" s="10">
-        <v>76.496540802536799</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
+    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>36892</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B2" s="11">
         <v>251454.423577515</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C2" s="15">
         <v>10.4266666666667</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D2" s="13">
         <v>18.1733333333333</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E2" s="14">
         <v>76.894963343005898</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>36982</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B3" s="11">
         <v>250719.17255094601</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C3" s="15">
         <v>11.1766666666667</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D3" s="13">
         <v>16.8</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E3" s="14">
         <v>78.293315496321895</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>37073</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B4" s="11">
         <v>251918.86777897101</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C4" s="15">
         <v>11.713333333333299</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D4" s="13">
         <v>15.1566666666667</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E4" s="14">
         <v>78.545285977919207</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>37165</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B5" s="11">
         <v>251745.04758424699</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C5" s="15">
         <v>9.41</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D5" s="13">
         <v>12.733333333333301</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E5" s="14">
         <v>78.975249992711895</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>37257</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B6" s="11">
         <v>253340.91850246699</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C6" s="15">
         <v>8.3066666666666702</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D6" s="13">
         <v>10.4</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E6" s="14">
         <v>80.017248929514196</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>37347</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B7" s="11">
         <v>255027.56218904199</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C7" s="15">
         <v>7.9266666666666694</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D7" s="13">
         <v>9.5566666666666702</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E7" s="14">
         <v>79.429304860526599</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>37438</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B8" s="11">
         <v>257457.686070825</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C8" s="15">
         <v>7.21</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D8" s="13">
         <v>8.25</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E8" s="14">
         <v>79.621953573021202</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>37530</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B9" s="11">
         <v>258756.71912027799</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C9" s="15">
         <v>5.98</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D9" s="13">
         <v>6.8833333333333293</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E9" s="14">
         <v>79.4131586815719</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>37622</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B10" s="11">
         <v>259850.610751514</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C10" s="15">
         <v>5.6133333333333297</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D10" s="13">
         <v>6.24</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E10" s="14">
         <v>79.629065584477601</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>37712</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B11" s="11">
         <v>264183.68789552699</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C11" s="15">
         <v>5.1866666666666701</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D11" s="13">
         <v>5.5433333333333286</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E11" s="14">
         <v>80.100909986599802</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>37803</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B12" s="11">
         <v>267592.74696092401</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C12" s="15">
         <v>5.6366666666666703</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D12" s="13">
         <v>5.2066666666666714</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E12" s="14">
         <v>79.969451943917605</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="4">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>37895</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B13" s="11">
         <v>269681.86417083698</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C13" s="15">
         <v>6.67333333333334</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D13" s="13">
         <v>5.7633333333333292</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E13" s="14">
         <v>80.715544931786994</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>37987</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B14" s="11">
         <v>276061.82105715497</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C14" s="15">
         <v>6.7133333333333294</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D14" s="13">
         <v>5.4833333333333298</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E14" s="14">
         <v>82.192285697429995</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>38078</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B15" s="11">
         <v>278363.46914283797</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C15" s="15">
         <v>7.2033333333333296</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D15" s="13">
         <v>5.9666666666666686</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E15" s="14">
         <v>82.891073452850307</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="4">
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>38169</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B16" s="11">
         <v>278215.76396287797</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C16" s="15">
         <v>7.2533333333333294</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D16" s="13">
         <v>6.7733333333333299</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E16" s="14">
         <v>84.588047863149498</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>38261</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B17" s="11">
         <v>280933.57286259299</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C17" s="15">
         <v>6.4166666666666714</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D17" s="13">
         <v>6.75</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E17" s="14">
         <v>86.574735009837795</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="4">
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>38353</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B18" s="11">
         <v>282491.06898420001</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C18" s="15">
         <v>5.75</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D18" s="13">
         <v>6.2766666666666708</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E18" s="14">
         <v>85.980582425278001</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="4">
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>38443</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B19" s="11">
         <v>283799.59076892101</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C19" s="15">
         <v>5.25</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D19" s="13">
         <v>5.31</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E19" s="14">
         <v>87.3444241199755</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="4">
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>38534</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B20" s="11">
         <v>288912.67554036499</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C20" s="15">
         <v>4.7233333333333292</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D20" s="13">
         <v>4.59</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E20" s="14">
         <v>86.827788587057597</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="4">
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>38626</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B21" s="11">
         <v>294109.81539148098</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C21" s="15">
         <v>5.15</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D21" s="13">
         <v>4.6166666666666707</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E21" s="14">
         <v>85.520963417532897</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="4">
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>38718</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B22" s="11">
         <v>298705.30224975001</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C22" s="15">
         <v>4.8433333333333293</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D22" s="13">
         <v>4.2433333333333314</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E22" s="14">
         <v>86.440766065092802</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="4">
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>38808</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B23" s="11">
         <v>305645.51437239401</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C23" s="15">
         <v>5.2833333333333314</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D23" s="13">
         <v>4.1633333333333304</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E23" s="14">
         <v>86.162729325220297</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="4">
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <v>38899</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B24" s="11">
         <v>310629.53554997902</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C24" s="15">
         <v>5.5533333333333292</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D24" s="13">
         <v>4.1966666666666708</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E24" s="14">
         <v>87.538163921991796</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="4">
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>38991</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B25" s="11">
         <v>306341.71883348102</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C25" s="15">
         <v>5.2466666666666706</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D25" s="13">
         <v>4.2</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E25" s="14">
         <v>91.026099859842603</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="4">
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
         <v>39083</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B26" s="11">
         <v>318967.44677463599</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C26" s="15">
         <v>5.18333333333333</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D26" s="13">
         <v>4.2166666666666686</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E26" s="14">
         <v>89.673561050899195</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="4">
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <v>39173</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B27" s="11">
         <v>323135.100834782</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C27" s="15">
         <v>5.3633333333333297</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D27" s="13">
         <v>4.4283333333333292</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E27" s="14">
         <v>90.803950328087197</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="4">
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <v>39264</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B28" s="11">
         <v>328789.715285343</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C28" s="15">
         <v>5.6566666666666707</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D28" s="13">
         <v>4.95</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E28" s="14">
         <v>91.069265793349402</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="4">
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
         <v>39356</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B29" s="11">
         <v>333310.215943666</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C29" s="15">
         <v>5.734</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D29" s="13">
         <v>5.4833333333333298</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E29" s="14">
         <v>92.887972061549803</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="4">
+    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
         <v>39448</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B30" s="11">
         <v>338592.41852775501</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C30" s="15">
         <v>5.8733333333333304</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D30" s="13">
         <v>5.9133333333333304</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E30" s="14">
         <v>93.461726365320402</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="4">
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
         <v>39539</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B31" s="11">
         <v>340449.607535819</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C31" s="15">
         <v>6.17</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D31" s="13">
         <v>6.49</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E31" s="14">
         <v>94.068272174033595</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="4">
+    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
         <v>39630</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B32" s="11">
         <v>340326.42191955901</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C32" s="15">
         <v>6.15</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D32" s="13">
         <v>6.5633333333333299</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E32" s="14">
         <v>95.281266869271505</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="4">
+    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
         <v>39722</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B33" s="11">
         <v>340925.38783693098</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C33" s="15">
         <v>6.0933333333333293</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D33" s="13">
         <v>6.43</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E33" s="14">
         <v>96.390539294950798</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="4">
+    <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
         <v>39814</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B34" s="11">
         <v>344956.08501901198</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C34" s="15">
         <v>5.8843939393333304</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D34" s="13">
         <v>4.5133333333333292</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E34" s="14">
         <v>97.894791614120805</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="4">
+    <row r="35" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>39904</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B35" s="11">
         <v>345740.87899963203</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C35" s="15">
         <v>6.2813333333333299</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D35" s="13">
         <v>4.4533333333333296</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E35" s="14">
         <v>98.243812009378203</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="4">
+    <row r="36" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
         <v>39995</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B36" s="11">
         <v>348383.11390164198</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C36" s="15">
         <v>6.1466666666666603</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D36" s="13">
         <v>4.1766666666666694</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E36" s="14">
         <v>99.241540283812895</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="4">
+    <row r="37" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
         <v>40087</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B37" s="11">
         <v>354356.39870919503</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C37" s="15">
         <v>6.17</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D37" s="13">
         <v>4.2133333333333294</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E37" s="14">
         <v>98.820303717634701</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="4">
+    <row r="38" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
         <v>40179</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B38" s="11">
         <v>353076.09121695103</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C38" s="15">
         <v>5.98</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D38" s="13">
         <v>4.1466666666666701</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E38" s="14">
         <v>98.921676115229502</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="4">
+    <row r="39" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
         <v>40269</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B39" s="11">
         <v>358331.08716186602</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C39" s="15">
         <v>5.72</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D39" s="13">
         <v>3.8633333333333302</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E39" s="14">
         <v>99.928389301985007</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="4">
+    <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
         <v>40360</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B40" s="11">
         <v>362542.32222735602</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C40" s="15">
         <v>5.65</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D40" s="13">
         <v>3.8233333333333301</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E40" s="14">
         <v>100.315209807911</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="4">
+    <row r="41" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
         <v>40452</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B41" s="11">
         <v>365549.99939382699</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C41" s="15">
         <v>5.7766666666666708</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D41" s="13">
         <v>3.89333333333333</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E41" s="14">
         <v>100.834724774874</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="4">
+    <row r="42" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
         <v>40544</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B42" s="11">
         <v>372121.74629210099</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C42" s="15">
         <v>6.2633333333333292</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D42" s="13">
         <v>4.1466666666666701</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E42" s="14">
         <v>102.165618320842</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="4">
+    <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
         <v>40634</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B43" s="11">
         <v>376825.55588041502</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C43" s="15">
         <v>6.0266666666666708</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D43" s="13">
         <v>4.4800000000000004</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E43" s="14">
         <v>102.41824040180001</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="4">
+    <row r="44" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
         <v>40725</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B44" s="11">
         <v>381234.20702213398</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C44" s="15">
         <v>5.75</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D44" s="13">
         <v>4.7300000000000004</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E44" s="14">
         <v>103.146217160535</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="4">
+    <row r="45" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
         <v>40817</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B45" s="11">
         <v>384768.55098150601</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C45" s="15">
         <v>5.7823333333333293</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D45" s="13">
         <v>4.9566666666666714</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E45" s="14">
         <v>104.414285679041</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="4">
+    <row r="46" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
         <v>40909</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B46" s="11">
         <v>385588.44488550402</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C46" s="15">
         <v>5.5019</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D46" s="13">
         <v>4.9682333333333304</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E46" s="14">
         <v>104.43708174846</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="4">
+    <row r="47" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
         <v>41000</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B47" s="11">
         <v>384734.54268253798</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C47" s="15">
         <v>5.3785666666666696</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D47" s="13">
         <v>5.0633333333333299</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E47" s="14">
         <v>105.59273883290101</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="4">
+    <row r="48" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
         <v>41091</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B48" s="11">
         <v>384921.126485763</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C48" s="15">
         <v>4.9066666666666707</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D48" s="13">
         <v>5.0233333333333299</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E48" s="14">
         <v>105.85263346457999</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="4">
+    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
         <v>41183</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B49" s="11">
         <v>384515.63000251702</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C49" s="15">
         <v>4.21</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D49" s="13">
         <v>4.4433333333333298</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E49" s="14">
         <v>105.305269379804</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="4">
+    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
         <v>41275</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B50" s="11">
         <v>383460.44905232801</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C50" s="15">
         <v>3.9433333333333298</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D50" s="13">
         <v>3.69</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E50" s="14">
         <v>105.05631914588299</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="4">
+    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
         <v>41365</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B51" s="11">
         <v>386361.06305538298</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C51" s="15">
         <v>3.5764999999999998</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D51" s="13">
         <v>2.85</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E51" s="14">
         <v>105.46713715710101</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="4">
+    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
         <v>41456</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B52" s="11">
         <v>389191.72912500601</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C52" s="15">
         <v>4.2544444443333296</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D52" s="13">
         <v>2.69</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E52" s="14">
         <v>105.280180904201</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="4">
+    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
         <v>41548</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B53" s="11">
         <v>391369.77173888503</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C53" s="15">
         <v>4.3588888890000002</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D53" s="13">
         <v>2.6733333333333298</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E53" s="14">
         <v>106.66218578207101</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="4">
+    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
         <v>41640</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B54" s="11">
         <v>396603.85887776798</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C54" s="15">
         <v>4.38</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D54" s="13">
         <v>2.71</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E54" s="14">
         <v>106.57146064627</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="4">
+    <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
         <v>41730</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B55" s="11">
         <v>401099.92394349899</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C55" s="15">
         <v>3.8134920633333298</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D55" s="13">
         <v>2.7066666666666701</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E55" s="14">
         <v>106.11737090817201</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="4">
+    <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
         <v>41821</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B56" s="11">
         <v>404355.06396690302</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C56" s="15">
         <v>3.2669666666666699</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D56" s="13">
         <v>2.5133333333333301</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E56" s="14">
         <v>106.74641544134499</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="4">
+    <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
         <v>41913</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B57" s="11">
         <v>407800.734435633</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C57" s="15">
         <v>2.6043859650000001</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D57" s="13">
         <v>2.0266666666666699</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E57" s="14">
         <v>105.413389715378</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="4">
+    <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
         <v>42005</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B58" s="11">
         <v>414470.47561759898</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C58" s="15">
         <v>2.244151515</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D58" s="13">
         <v>1.82</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E58" s="14">
         <v>106.571558994762</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="4">
+    <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
         <v>42095</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B59" s="11">
         <v>416835.43791913701</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C59" s="15">
         <v>2.7925</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D59" s="13">
         <v>1.68333333333333</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E59" s="14">
         <v>107.37176744742401</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="4">
+    <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
         <v>42186</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B60" s="11">
         <v>422410.02790323901</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C60" s="15">
         <v>2.9842712843333299</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D60" s="13">
         <v>1.7233333333333301</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E60" s="14">
         <v>107.251329852113</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="4">
+    <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
         <v>42278</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B61" s="11">
         <v>425995.76218105003</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C61" s="15">
         <v>2.7813030303333299</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D61" s="13">
         <v>1.7266666666666699</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E61" s="14">
         <v>109.003360215898</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="4">
+    <row r="62" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
         <v>42370</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B62" s="11">
         <v>425236.66335965</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C62" s="15">
         <v>2.9722807016666701</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D62" s="13">
         <v>1.68333333333333</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E62" s="14">
         <v>107.711955045631</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="4">
+    <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
         <v>42461</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B63" s="11">
         <v>431505.862353776</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C63" s="15">
         <v>3.0342857143333299</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D63" s="13">
         <v>1.6866666666666701</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E63" s="14">
         <v>107.63239711220599</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="4">
+    <row r="64" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
         <v>42552</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B64" s="11">
         <v>434020.79705520603</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C64" s="15">
         <v>2.8161904763333299</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D64" s="13">
         <v>1.71</v>
       </c>
-      <c r="E88" s="10">
+      <c r="E64" s="14">
         <v>107.747830661856</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="4">
+    <row r="65" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
         <v>42644</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B65" s="11">
         <v>442416.06054701097</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C65" s="15">
         <v>3.32</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D65" s="13">
         <v>1.7266666666666699</v>
       </c>
-      <c r="E89" s="10">
+      <c r="E65" s="14">
         <v>107.73318334792199</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="4">
+    <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
         <v>42736</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B66" s="11">
         <v>447593.88704315701</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C66" s="15">
         <v>3.7166666666666699</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D66" s="13">
         <v>1.73</v>
       </c>
-      <c r="E90" s="10">
+      <c r="E66" s="14">
         <v>109.12565787153299</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="4">
+    <row r="67" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
         <v>42826</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B67" s="11">
         <v>452002.62215598399</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C67" s="15">
         <v>3.32</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D67" s="13">
         <v>1.73</v>
       </c>
-      <c r="E91" s="10">
+      <c r="E67" s="14">
         <v>109.49913503721</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="4">
+    <row r="68" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
         <v>42917</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B68" s="11">
         <v>458781.69372129801</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C68" s="15">
         <v>3.29666666666667</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D68" s="13">
         <v>1.73</v>
       </c>
-      <c r="E92" s="10">
+      <c r="E68" s="14">
         <v>109.654767047959</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="4">
+    <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
         <v>43009</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B69" s="11">
         <v>465303.30986776098</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C69" s="15">
         <v>3.3466666666666698</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D69" s="13">
         <v>1.7266666666666699</v>
       </c>
-      <c r="E93" s="10">
+      <c r="E69" s="14">
         <v>109.63922389967</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="4">
+    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
         <v>43101</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B70" s="11">
         <v>474523.42155897</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C70" s="15">
         <v>3.3266666666666702</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D70" s="13">
         <v>1.71333333333333</v>
       </c>
-      <c r="E94" s="10">
+      <c r="E70" s="14">
         <v>110.005004012331</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="4">
+    <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
         <v>43191</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B71" s="11">
         <v>481462.54205720202</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C71" s="15">
         <v>3.1666666666666701</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D71" s="13">
         <v>1.7</v>
       </c>
-      <c r="E95" s="10">
+      <c r="E71" s="14">
         <v>110.10992520795899</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="4">
+    <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
         <v>43282</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B72" s="11">
         <v>487547.76035246899</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C72" s="15">
         <v>3.18333333333333</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D72" s="13">
         <v>1.71</v>
       </c>
-      <c r="E96" s="10">
+      <c r="E72" s="14">
         <v>110.976724157053</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="4">
+    <row r="73" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
         <v>43374</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B73" s="11">
         <v>492310.09780345001</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C73" s="15">
         <v>3.1166666666666698</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D73" s="13">
         <v>1.72</v>
       </c>
-      <c r="E97" s="10">
+      <c r="E73" s="14">
         <v>112.26529524861201</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="4">
+    <row r="74" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
         <v>43466</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B74" s="11">
         <v>499454.94751765998</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C74" s="15">
         <v>2.74</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D74" s="13">
         <v>1.72</v>
       </c>
-      <c r="E98" s="10">
+      <c r="E74" s="14">
         <v>112.788320410754</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="4">
+    <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
         <v>43556</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B75" s="11">
         <v>504097.038341181</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C75" s="15">
         <v>2.61</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D75" s="13">
         <v>1.72</v>
       </c>
-      <c r="E99" s="10">
+      <c r="E75" s="14">
         <v>114.439270381434</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="4">
+    <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
         <v>43647</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B76" s="11">
         <v>508062.15408747498</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C76" s="15">
         <v>2.0266666666666699</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D76" s="13">
         <v>1.72</v>
       </c>
-      <c r="E100" s="10">
+      <c r="E76" s="14">
         <v>113.94079432439401</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="4">
+    <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
         <v>43739</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B77" s="11">
         <v>511687.52272852801</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C77" s="15">
         <v>2.0133333333333301</v>
       </c>
-      <c r="D101" s="7">
+      <c r="D77" s="13">
         <v>1.71</v>
       </c>
-      <c r="E101" s="10">
+      <c r="E77" s="14">
         <v>115.78179127703299</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="4">
+    <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
         <v>43831</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B78" s="11">
         <v>514765.81959730003</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C78" s="15">
         <v>2.04</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D78" s="13">
         <v>1.53</v>
       </c>
-      <c r="E102" s="10">
+      <c r="E78" s="14">
         <v>116.340759101602</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="4">
+    <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
         <v>43922</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B79" s="11">
         <v>468449.03553670802</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C79" s="15">
         <v>1.37333333333333</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D79" s="13">
         <v>0.40666666666666701</v>
       </c>
-      <c r="E103" s="10">
+      <c r="E79" s="14">
         <v>118.397887122821</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="4">
+    <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
         <v>44013</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B80" s="11">
         <v>499222.09563361702</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C80" s="15">
         <v>1.3333333333333299</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D80" s="13">
         <v>0.22666666666666699</v>
       </c>
-      <c r="E104" s="10">
+      <c r="E80" s="14">
         <v>119.17944207417</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="4">
+    <row r="81" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
         <v>44105</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B81" s="11">
         <v>499935.17828752502</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C81" s="15">
         <v>1.25</v>
       </c>
-      <c r="D105" s="7">
+      <c r="D81" s="13">
         <v>0.2166666666666669</v>
       </c>
-      <c r="E105" s="10">
+      <c r="E81" s="14">
         <v>122.56523297245</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="4">
+    <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
         <v>44197</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B82" s="11">
         <v>511660.06417602801</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C82" s="15">
         <v>1.34</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D82" s="13">
         <v>0.21</v>
       </c>
-      <c r="E106" s="10">
+      <c r="E82" s="14">
         <v>124.254097916823</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="4">
+    <row r="83" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
         <v>44287</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B83" s="11">
         <v>524664.83770123299</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C83" s="15">
         <v>1.7166666666666699</v>
       </c>
-      <c r="D107" s="7">
+      <c r="D83" s="13">
         <v>0.21</v>
       </c>
-      <c r="E107" s="10">
+      <c r="E83" s="14">
         <v>124.43908937680099</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="4">
+    <row r="84" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
         <v>44378</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B84" s="11">
         <v>535472.255257588</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C84" s="15">
         <v>1.69333333333333</v>
       </c>
-      <c r="D108" s="7">
+      <c r="D84" s="13">
         <v>0.22</v>
       </c>
-      <c r="E108" s="10">
+      <c r="E84" s="14">
         <v>125.906873191484</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="4">
+    <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
         <v>44470</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B85" s="11">
         <v>546157.41087987705</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C85" s="15">
         <v>3.0266666666666699</v>
       </c>
-      <c r="D109" s="7">
+      <c r="D85" s="13">
         <v>1.78</v>
       </c>
-      <c r="E109" s="10">
+      <c r="E85" s="14">
         <v>127.80160299542401</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="4">
+    <row r="86" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
         <v>44562</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B86" s="11">
         <v>564197.76384332299</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C86" s="15">
         <v>4.26</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D86" s="13">
         <v>3.8133333333333299</v>
       </c>
-      <c r="E110" s="10">
+      <c r="E86" s="14">
         <v>129.59988067281</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="4">
+    <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
         <v>44652</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B87" s="11">
         <v>557916.72492288996</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C87" s="15">
         <v>6.58</v>
       </c>
-      <c r="D111" s="7">
+      <c r="D87" s="13">
         <v>6.5633333333333299</v>
       </c>
-      <c r="E111" s="10">
+      <c r="E87" s="14">
         <v>136.18864304905901</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="4">
+    <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
         <v>44743</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B88" s="11">
         <v>560975.03666782402</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C88" s="15">
         <v>6.15</v>
       </c>
-      <c r="D112" s="7">
+      <c r="D88" s="13">
         <v>7.11</v>
       </c>
-      <c r="E112" s="10">
+      <c r="E88" s="14">
         <v>141.102657877431</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" s="4">
+    <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
         <v>44835</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B89" s="11">
         <v>551846.36951383902</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C89" s="15">
         <v>7.2233333333333292</v>
       </c>
-      <c r="D113" s="7">
+      <c r="D89" s="13">
         <v>7.27</v>
       </c>
-      <c r="E113" s="10">
+      <c r="E89" s="14">
         <v>147.38535983267701</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" s="4">
+    <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
         <v>44927</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B90" s="11">
         <v>557368.225641764</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C90" s="15">
         <v>6.1133333333333297</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D90" s="13">
         <v>6.9266666666666694</v>
       </c>
-      <c r="E114" s="10">
+      <c r="E90" s="14">
         <v>150.29476412206299</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="4">
+    <row r="91" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
         <v>45017</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B91" s="11">
         <v>553914.49394661095</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C91" s="15">
         <v>5.97</v>
       </c>
-      <c r="D115" s="7">
+      <c r="D91" s="13">
         <v>6.9</v>
       </c>
-      <c r="E115" s="10">
+      <c r="E91" s="14">
         <v>153.369561581249</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" s="4">
+    <row r="92" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
         <v>45108</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B92" s="11">
         <v>564312.72029094398</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C92" s="15">
         <v>5.61</v>
       </c>
-      <c r="D116" s="7">
+      <c r="D92" s="13">
         <v>6.48</v>
       </c>
-      <c r="E116" s="10">
+      <c r="E92" s="14">
         <v>151.84747137007301</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" s="4">
+    <row r="93" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
         <v>45200</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B93" s="11">
         <v>562461.07337604498</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C93" s="15">
         <v>5.53</v>
       </c>
-      <c r="D117" s="7">
+      <c r="D93" s="13">
         <v>5.7666666666666666</v>
       </c>
-      <c r="E117" s="10">
+      <c r="E93" s="14">
         <v>154.34583014905601</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" s="4">
+    <row r="94" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
         <v>45292</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B94" s="11">
         <v>566966.12335039303</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C94" s="15">
         <v>5.333333333333333</v>
       </c>
-      <c r="D118" s="7">
+      <c r="D94" s="13">
         <v>5.8633333333333324</v>
       </c>
-      <c r="E118" s="10">
+      <c r="E94" s="14">
         <v>155.55043293873899</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" s="4">
+    <row r="95" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
         <v>45383</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B95" s="11">
         <v>575311.84388814599</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C95" s="15">
         <v>5.69</v>
       </c>
-      <c r="D119" s="7">
+      <c r="D95" s="13">
         <v>5.8500000000000014</v>
       </c>
-      <c r="E119" s="10">
+      <c r="E95" s="14">
         <v>156.40186902270099</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" s="4">
+    <row r="96" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
         <v>45474</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B96" s="11">
         <v>575916.35189868405</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C96" s="15">
         <v>5.4133333333333322</v>
       </c>
-      <c r="D120" s="7">
+      <c r="D96" s="13">
         <v>5.8533333333333326</v>
       </c>
-      <c r="E120" s="10">
+      <c r="E96" s="14">
         <v>159.00549014379101</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" s="4">
+    <row r="97" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
         <v>45566</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B97" s="11">
         <v>584140.56624234805</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C97" s="15">
         <v>5.663333333333334</v>
       </c>
-      <c r="D121" s="7">
+      <c r="D97" s="13">
         <v>5.8499999999999988</v>
       </c>
-      <c r="E121" s="10">
+      <c r="E97" s="14">
         <v>160.41444462232499</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" s="4">
+    <row r="98" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
         <v>45658</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B98" s="11">
         <v>588084.94112482795</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C98" s="15">
         <v>5.876666666666666</v>
       </c>
-      <c r="D122" s="7">
+      <c r="D98" s="13">
         <v>5.8566666666666656</v>
       </c>
-      <c r="E122" s="10">
+      <c r="E98" s="14">
         <v>160.646885330206</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" s="4">
-        <v>45748</v>
-      </c>
-      <c r="B123" s="2">
-        <v>592723.42119068105</v>
-      </c>
-      <c r="C123" s="5">
-        <v>5.413333333333334</v>
-      </c>
-      <c r="D123" s="7">
-        <v>5.3566666666666656</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" s="4">
-        <v>45839</v>
-      </c>
-      <c r="C124" s="5">
-        <v>5.4033333333333324</v>
-      </c>
-      <c r="D124" s="7">
-        <v>4.8833333333333329</v>
       </c>
     </row>
   </sheetData>
@@ -2561,545 +2252,545 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34762BDD-26D5-4533-9EC9-3811DBDE31C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection sqref="A1:B66"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>21916</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>29637450</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>22282</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>29964000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>22647</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>30308500</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>23012</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>30712000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>23377</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>31139450</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>23743</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>31444950</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>24108</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>31681000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>24473</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>31987155</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>24838</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>32294655</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>25204</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>32548300</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>25569</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>32664300</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>25934</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>32783500</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>26299</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>33055650</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>26665</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>33357200</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>27030</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>33678899</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>27395</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>34015199</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>27760</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>34356300</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>28126</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>34689050</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
+    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>28491</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>34965600</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
+    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>28856</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>35247217</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
+    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>29221</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>35574150</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
+    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>29587</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>35898587</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
+    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <v>29952</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>36230481</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
+    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>30317</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>36571808</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="9">
+    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
         <v>30682</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>36904134</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="9">
+    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <v>31048</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="4">
         <v>37201885</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="9">
+    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <v>31413</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="4">
         <v>37456119</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
+    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
         <v>31778</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="4">
         <v>37668045</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="9">
+    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
         <v>32143</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="4">
         <v>37824487</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="9">
+    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
         <v>32509</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="4">
         <v>37961529</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="9">
+    <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
         <v>32874</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="4">
         <v>38110782</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="9">
+    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
         <v>33239</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="4">
         <v>38246193</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="9">
+    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
         <v>33604</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="4">
         <v>38363667</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="9">
+    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>33970</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="4">
         <v>38461408</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="9">
+    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
         <v>34335</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="4">
         <v>38542652</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="9">
+    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
         <v>34700</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="4">
         <v>38594998</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="9">
+    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
         <v>35065</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="4">
         <v>38624370</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="9">
+    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
         <v>35431</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="4">
         <v>38649660</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="9">
+    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
         <v>35796</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="4">
         <v>38663481</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="9">
+    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
         <v>36161</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="4">
         <v>38660271</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="9">
+    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
         <v>36526</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="4">
         <v>38258629</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="9">
+    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
         <v>36892</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="4">
         <v>38248076</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="9">
+    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
         <v>37257</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="4">
         <v>38230364</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="9">
+    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
         <v>37622</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="4">
         <v>38204570</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="9">
+    <row r="46" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
         <v>37987</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="4">
         <v>38182222</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="9">
+    <row r="47" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
         <v>38353</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="4">
         <v>38165445</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="9">
+    <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
         <v>38718</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="4">
         <v>38141267</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="9">
+    <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
         <v>39083</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="4">
         <v>38120560</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="9">
+    <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
         <v>39448</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="4">
         <v>38125759</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="9">
+    <row r="51" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
         <v>39814</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="4">
         <v>38151603</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="9">
+    <row r="52" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
         <v>40179</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="4">
         <v>38042794</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="9">
+    <row r="53" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
         <v>40544</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="4">
         <v>38063255</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="9">
+    <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
         <v>40909</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="4">
         <v>38063164</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="9">
+    <row r="55" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
         <v>41275</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="4">
         <v>38040196</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="9">
+    <row r="56" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
         <v>41640</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="4">
         <v>38011735</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="9">
+    <row r="57" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
         <v>42005</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="4">
         <v>37986412</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="9">
+    <row r="58" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
         <v>42370</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="4">
         <v>37970087</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="9">
+    <row r="59" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
         <v>42736</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="4">
         <v>37974826</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="9">
+    <row r="60" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
         <v>43101</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="4">
         <v>37974750</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="9">
+    <row r="61" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
         <v>43466</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="4">
         <v>37965475</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="9">
+    <row r="62" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
         <v>43831</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="4">
         <v>37515748</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="9">
+    <row r="63" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
         <v>44197</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="4">
         <v>36981559</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="9">
+    <row r="64" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
         <v>44562</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="4">
         <v>36821749</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="9">
+    <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
         <v>44927</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="4">
         <v>36687353</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="9">
+    <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
         <v>45292</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="4">
         <v>36554707</v>
       </c>
     </row>

--- a/FinancialPlanner/data/Macro_data_poland.xlsx
+++ b/FinancialPlanner/data/Macro_data_poland.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matsz\programowanie\Optymalizacja_portfela\FinancialPlanner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476D082D-4ACC-42DC-88DB-452CBECF4D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB29F14-F797-421E-9CA3-C3631074660C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>observation_date</t>
   </si>
@@ -65,19 +65,27 @@
   <si>
     <t>Data Updated: 2025-09-01</t>
   </si>
+  <si>
+    <t>NGDPSAXDCPLQ</t>
+  </si>
+  <si>
+    <t>POLCPIALLQINMEI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000000000000000"/>
     <numFmt numFmtId="167" formatCode="#,##0.00000000000000000"/>
     <numFmt numFmtId="168" formatCode="#,##0.0000000000000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0000000000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +106,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -107,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -137,11 +153,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,6 +227,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,10 +601,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:XFD99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,9 +614,11 @@
     <col min="3" max="3" width="23.109375" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.109375" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,8 +634,14 @@
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>36892</v>
       </c>
@@ -613,8 +657,14 @@
       <c r="E2" s="14">
         <v>76.894963343005898</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="21">
+        <v>193338.3</v>
+      </c>
+      <c r="G2" s="22">
+        <v>73.027969999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>36982</v>
       </c>
@@ -630,8 +680,14 @@
       <c r="E3" s="14">
         <v>78.293315496321895</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="21">
+        <v>196278.6</v>
+      </c>
+      <c r="G3" s="22">
+        <v>74.387720000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>37073</v>
       </c>
@@ -647,8 +703,14 @@
       <c r="E4" s="14">
         <v>78.545285977919207</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="21">
+        <v>197852.5</v>
+      </c>
+      <c r="G4" s="22">
+        <v>74.340830000000011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>37165</v>
       </c>
@@ -664,8 +726,14 @@
       <c r="E5" s="14">
         <v>78.975249992711895</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="21">
+        <v>198798.3</v>
+      </c>
+      <c r="G5" s="22">
+        <v>74.786270000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>37257</v>
       </c>
@@ -681,8 +749,14 @@
       <c r="E6" s="14">
         <v>80.017248929514196</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="21">
+        <v>202698.1</v>
+      </c>
+      <c r="G6" s="22">
+        <v>75.630250000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>37347</v>
       </c>
@@ -698,8 +772,14 @@
       <c r="E7" s="14">
         <v>79.429304860526599</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="21">
+        <v>202548.3</v>
+      </c>
+      <c r="G7" s="22">
+        <v>75.911580000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>37438</v>
       </c>
@@ -715,8 +795,14 @@
       <c r="E8" s="14">
         <v>79.621953573021202</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="21">
+        <v>204974.3</v>
+      </c>
+      <c r="G8" s="22">
+        <v>75.208259999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>37530</v>
       </c>
@@ -732,8 +818,14 @@
       <c r="E9" s="14">
         <v>79.4131586815719</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="21">
+        <v>205468.3</v>
+      </c>
+      <c r="G9" s="22">
+        <v>75.442700000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>37622</v>
       </c>
@@ -749,8 +841,14 @@
       <c r="E10" s="14">
         <v>79.629065584477601</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="21">
+        <v>206897.9</v>
+      </c>
+      <c r="G10" s="22">
+        <v>75.864689999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>37712</v>
       </c>
@@ -766,8 +864,14 @@
       <c r="E11" s="14">
         <v>80.100909986599802</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="21">
+        <v>211594.4</v>
+      </c>
+      <c r="G11" s="22">
+        <v>76.146019999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>37803</v>
       </c>
@@ -783,8 +887,14 @@
       <c r="E12" s="14">
         <v>79.969451943917605</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="21">
+        <v>213973.1</v>
+      </c>
+      <c r="G12" s="22">
+        <v>75.747469999999979</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>37895</v>
       </c>
@@ -800,8 +910,14 @@
       <c r="E13" s="14">
         <v>80.715544931786994</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="21">
+        <v>217655.5</v>
+      </c>
+      <c r="G13" s="22">
+        <v>76.497669999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>37987</v>
       </c>
@@ -817,8 +933,14 @@
       <c r="E14" s="14">
         <v>82.192285697429995</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="21">
+        <v>226881</v>
+      </c>
+      <c r="G14" s="22">
+        <v>77.060330000000022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>38078</v>
       </c>
@@ -834,8 +956,14 @@
       <c r="E15" s="14">
         <v>82.891073452850307</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="21">
+        <v>230717.6</v>
+      </c>
+      <c r="G15" s="22">
+        <v>78.607640000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>38169</v>
       </c>
@@ -851,8 +979,14 @@
       <c r="E16" s="14">
         <v>84.588047863149498</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="21">
+        <v>235316</v>
+      </c>
+      <c r="G16" s="22">
+        <v>79.099959999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>38261</v>
       </c>
@@ -868,8 +1002,14 @@
       <c r="E17" s="14">
         <v>86.574735009837795</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="21">
+        <v>243195.5</v>
+      </c>
+      <c r="G17" s="22">
+        <v>79.779830000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>38353</v>
       </c>
@@ -885,8 +1025,14 @@
       <c r="E18" s="14">
         <v>85.980582425278001</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="21">
+        <v>242865.5</v>
+      </c>
+      <c r="G18" s="22">
+        <v>79.943939999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>38443</v>
       </c>
@@ -902,8 +1048,14 @@
       <c r="E19" s="14">
         <v>87.3444241199755</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="21">
+        <v>247860.7</v>
+      </c>
+      <c r="G19" s="22">
+        <v>80.412819999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>38534</v>
       </c>
@@ -919,8 +1071,14 @@
       <c r="E20" s="14">
         <v>86.827788587057597</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="21">
+        <v>250833.8</v>
+      </c>
+      <c r="G20" s="22">
+        <v>80.319050000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>38626</v>
       </c>
@@ -936,8 +1094,14 @@
       <c r="E21" s="14">
         <v>85.520963417532897</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="21">
+        <v>251502.8</v>
+      </c>
+      <c r="G21" s="22">
+        <v>80.741039999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>38718</v>
       </c>
@@ -953,8 +1117,14 @@
       <c r="E22" s="14">
         <v>86.440766065092802</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="21">
+        <v>258179.8</v>
+      </c>
+      <c r="G22" s="22">
+        <v>80.72175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>38808</v>
       </c>
@@ -970,8 +1140,14 @@
       <c r="E23" s="14">
         <v>86.162729325220297</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="21">
+        <v>263328.7</v>
+      </c>
+      <c r="G23" s="22">
+        <v>81.400080000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>38899</v>
       </c>
@@ -987,8 +1163,14 @@
       <c r="E24" s="14">
         <v>87.538163921991796</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="21">
+        <v>271894.8</v>
+      </c>
+      <c r="G24" s="22">
+        <v>81.671419999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>38991</v>
       </c>
@@ -1004,8 +1186,14 @@
       <c r="E25" s="14">
         <v>91.026099859842603</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="21">
+        <v>278825.7</v>
+      </c>
+      <c r="G25" s="22">
+        <v>81.75282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>39083</v>
       </c>
@@ -1021,8 +1209,14 @@
       <c r="E26" s="14">
         <v>89.673561050899195</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="21">
+        <v>286003.59999999998</v>
+      </c>
+      <c r="G26" s="22">
+        <v>82.34975</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>39173</v>
       </c>
@@ -1038,8 +1232,14 @@
       <c r="E27" s="14">
         <v>90.803950328087197</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="21">
+        <v>293392.90000000002</v>
+      </c>
+      <c r="G27" s="22">
+        <v>83.380809999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>39264</v>
       </c>
@@ -1055,8 +1255,14 @@
       <c r="E28" s="14">
         <v>91.069265793349402</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="21">
+        <v>299399.3</v>
+      </c>
+      <c r="G28" s="22">
+        <v>83.272289999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>39356</v>
       </c>
@@ -1072,8 +1278,14 @@
       <c r="E29" s="14">
         <v>92.887972061549803</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="21">
+        <v>309577.09999999998</v>
+      </c>
+      <c r="G29" s="22">
+        <v>84.547550000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>39448</v>
       </c>
@@ -1089,8 +1301,14 @@
       <c r="E30" s="14">
         <v>93.461726365320402</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="21">
+        <v>316425.7</v>
+      </c>
+      <c r="G30" s="22">
+        <v>85.795680000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>39539</v>
       </c>
@@ -1106,8 +1324,14 @@
       <c r="E31" s="14">
         <v>94.068272174033595</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="21">
+        <v>320226.09999999998</v>
+      </c>
+      <c r="G31" s="22">
+        <v>86.935290000000009</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>39630</v>
       </c>
@@ -1123,8 +1347,14 @@
       <c r="E32" s="14">
         <v>95.281266869271505</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="21">
+        <v>324238</v>
+      </c>
+      <c r="G32" s="22">
+        <v>87.125219999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>39722</v>
       </c>
@@ -1140,8 +1370,14 @@
       <c r="E33" s="14">
         <v>96.390539294950798</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="21">
+        <v>328590.09999999998</v>
+      </c>
+      <c r="G33" s="22">
+        <v>87.586489999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>39814</v>
       </c>
@@ -1157,8 +1393,14 @@
       <c r="E34" s="14">
         <v>97.894791614120805</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="21">
+        <v>337663.5</v>
+      </c>
+      <c r="G34" s="22">
+        <v>88.753219999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>39904</v>
       </c>
@@ -1174,8 +1416,14 @@
       <c r="E35" s="14">
         <v>98.243812009378203</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="21">
+        <v>339638.3</v>
+      </c>
+      <c r="G35" s="22">
+        <v>90.489750000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>39995</v>
       </c>
@@ -1191,8 +1439,14 @@
       <c r="E36" s="14">
         <v>99.241540283812895</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="21">
+        <v>345709.5</v>
+      </c>
+      <c r="G36" s="22">
+        <v>90.625429999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>40087</v>
       </c>
@@ -1208,8 +1462,14 @@
       <c r="E37" s="14">
         <v>98.820303717634701</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="21">
+        <v>350144.4</v>
+      </c>
+      <c r="G37" s="22">
+        <v>90.761089999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>40179</v>
       </c>
@@ -1225,8 +1485,14 @@
       <c r="E38" s="14">
         <v>98.921676115229502</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="21">
+        <v>349237.2</v>
+      </c>
+      <c r="G38" s="22">
+        <v>91.602230000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>40269</v>
       </c>
@@ -1242,8 +1508,14 @@
       <c r="E39" s="14">
         <v>99.928389301985007</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="21">
+        <v>358042.1</v>
+      </c>
+      <c r="G39" s="22">
+        <v>92.470489999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>40360</v>
       </c>
@@ -1259,8 +1531,14 @@
       <c r="E40" s="14">
         <v>100.315209807911</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="21">
+        <v>363652.2</v>
+      </c>
+      <c r="G40" s="22">
+        <v>92.470489999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40452</v>
       </c>
@@ -1276,8 +1554,14 @@
       <c r="E41" s="14">
         <v>100.834724774874</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="21">
+        <v>368568</v>
+      </c>
+      <c r="G41" s="22">
+        <v>93.393029999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>40544</v>
       </c>
@@ -1293,8 +1577,14 @@
       <c r="E42" s="14">
         <v>102.165618320842</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="21">
+        <v>380146.1</v>
+      </c>
+      <c r="G42" s="22">
+        <v>95.238100000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>40634</v>
       </c>
@@ -1310,8 +1600,14 @@
       <c r="E43" s="14">
         <v>102.41824040180001</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="21">
+        <v>385903.2</v>
+      </c>
+      <c r="G43" s="22">
+        <v>96.621889999999993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>40725</v>
       </c>
@@ -1327,8 +1623,14 @@
       <c r="E44" s="14">
         <v>103.146217160535</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="21">
+        <v>393193.1</v>
+      </c>
+      <c r="G44" s="22">
+        <v>96.24203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>40817</v>
       </c>
@@ -1344,8 +1646,14 @@
       <c r="E45" s="14">
         <v>104.414285679041</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="21">
+        <v>401717</v>
+      </c>
+      <c r="G45" s="22">
+        <v>97.517300000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>40909</v>
       </c>
@@ -1361,8 +1669,14 @@
       <c r="E46" s="14">
         <v>104.43708174846</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="21">
+        <v>402660.9</v>
+      </c>
+      <c r="G46" s="22">
+        <v>99.091030000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>41000</v>
       </c>
@@ -1378,8 +1692,14 @@
       <c r="E47" s="14">
         <v>105.59273883290101</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="21">
+        <v>406215</v>
+      </c>
+      <c r="G47" s="22">
+        <v>100.28489999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>41091</v>
       </c>
@@ -1395,8 +1715,14 @@
       <c r="E48" s="14">
         <v>105.85263346457999</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="21">
+        <v>407412.3</v>
+      </c>
+      <c r="G48" s="22">
+        <v>99.769360000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>41183</v>
       </c>
@@ -1412,8 +1738,14 @@
       <c r="E49" s="14">
         <v>105.305269379804</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="21">
+        <v>404878.6</v>
+      </c>
+      <c r="G49" s="22">
+        <v>100.20350000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>41275</v>
       </c>
@@ -1429,8 +1761,14 @@
       <c r="E50" s="14">
         <v>105.05631914588299</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="21">
+        <v>402813</v>
+      </c>
+      <c r="G50" s="22">
+        <v>100.42059999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>41365</v>
       </c>
@@ -1446,8 +1784,14 @@
       <c r="E51" s="14">
         <v>105.46713715710101</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="21">
+        <v>407447.1</v>
+      </c>
+      <c r="G51" s="22">
+        <v>100.8818</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>41456</v>
       </c>
@@ -1463,8 +1807,14 @@
       <c r="E52" s="14">
         <v>105.280180904201</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F52" s="21">
+        <v>409704.7</v>
+      </c>
+      <c r="G52" s="22">
+        <v>100.99039999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>41548</v>
       </c>
@@ -1480,8 +1830,14 @@
       <c r="E53" s="14">
         <v>106.66218578207101</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="21">
+        <v>417405.8</v>
+      </c>
+      <c r="G53" s="22">
+        <v>101.0175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>41640</v>
       </c>
@@ -1497,8 +1853,14 @@
       <c r="E54" s="14">
         <v>106.57146064627</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="21">
+        <v>422628.3</v>
+      </c>
+      <c r="G54" s="22">
+        <v>101.1803</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>41730</v>
       </c>
@@ -1514,8 +1876,14 @@
       <c r="E55" s="14">
         <v>106.11737090817201</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="21">
+        <v>425598.2</v>
+      </c>
+      <c r="G55" s="22">
+        <v>101.20740000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>41821</v>
       </c>
@@ -1531,8 +1899,14 @@
       <c r="E56" s="14">
         <v>106.74641544134499</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F56" s="21">
+        <v>431595.5</v>
+      </c>
+      <c r="G56" s="22">
+        <v>100.7462</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>41913</v>
       </c>
@@ -1548,8 +1922,14 @@
       <c r="E57" s="14">
         <v>105.413389715378</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="21">
+        <v>429837.7</v>
+      </c>
+      <c r="G57" s="22">
+        <v>100.3934</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>42005</v>
       </c>
@@ -1565,8 +1945,14 @@
       <c r="E58" s="14">
         <v>106.571558994762</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="21">
+        <v>441667.7</v>
+      </c>
+      <c r="G58" s="22">
+        <v>99.959299999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>42095</v>
       </c>
@@ -1582,8 +1968,14 @@
       <c r="E59" s="14">
         <v>107.37176744742401</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F59" s="21">
+        <v>447523.1</v>
+      </c>
+      <c r="G59" s="22">
+        <v>100.4477</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>42186</v>
       </c>
@@ -1599,8 +1991,14 @@
       <c r="E60" s="14">
         <v>107.251329852113</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="21">
+        <v>452999.4</v>
+      </c>
+      <c r="G60" s="22">
+        <v>99.986429999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>42278</v>
       </c>
@@ -1616,8 +2014,14 @@
       <c r="E61" s="14">
         <v>109.003360215898</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F61" s="21">
+        <v>464307.7</v>
+      </c>
+      <c r="G61" s="22">
+        <v>99.606570000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>42370</v>
       </c>
@@ -1633,8 +2037,14 @@
       <c r="E62" s="14">
         <v>107.711955045631</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="21">
+        <v>457989.3</v>
+      </c>
+      <c r="G62" s="22">
+        <v>98.955370000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>42461</v>
       </c>
@@ -1650,8 +2060,14 @@
       <c r="E63" s="14">
         <v>107.63239711220599</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="21">
+        <v>464398.1</v>
+      </c>
+      <c r="G63" s="22">
+        <v>99.416629999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>42552</v>
       </c>
@@ -1667,8 +2083,14 @@
       <c r="E64" s="14">
         <v>107.747830661856</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F64" s="21">
+        <v>467605.7</v>
+      </c>
+      <c r="G64" s="22">
+        <v>99.118160000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>42644</v>
       </c>
@@ -1684,8 +2106,14 @@
       <c r="E65" s="14">
         <v>107.73318334792199</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="21">
+        <v>476585.8</v>
+      </c>
+      <c r="G65" s="22">
+        <v>99.850769999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>42736</v>
       </c>
@@ -1701,8 +2129,14 @@
       <c r="E66" s="14">
         <v>109.12565787153299</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F66" s="21">
+        <v>488395.6</v>
+      </c>
+      <c r="G66" s="22">
+        <v>100.9632</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>42826</v>
       </c>
@@ -1718,8 +2152,14 @@
       <c r="E67" s="14">
         <v>109.49913503721</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="21">
+        <v>494894.2</v>
+      </c>
+      <c r="G67" s="22">
+        <v>101.28879999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>42917</v>
       </c>
@@ -1735,8 +2175,14 @@
       <c r="E68" s="14">
         <v>109.654767047959</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F68" s="21">
+        <v>503030.5</v>
+      </c>
+      <c r="G68" s="22">
+        <v>101.0989</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>43009</v>
       </c>
@@ -1752,8 +2198,14 @@
       <c r="E69" s="14">
         <v>109.63922389967</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="21">
+        <v>510108.8</v>
+      </c>
+      <c r="G69" s="22">
+        <v>102.2385</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>43101</v>
       </c>
@@ -1769,8 +2221,14 @@
       <c r="E70" s="14">
         <v>110.005004012331</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F70" s="21">
+        <v>521952.3</v>
+      </c>
+      <c r="G70" s="22">
+        <v>102.6998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>43191</v>
       </c>
@@ -1786,8 +2244,14 @@
       <c r="E71" s="14">
         <v>110.10992520795899</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="21">
+        <v>530090.1</v>
+      </c>
+      <c r="G71" s="22">
+        <v>103.2424</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>43282</v>
       </c>
@@ -1803,8 +2267,14 @@
       <c r="E72" s="14">
         <v>110.976724157053</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="21">
+        <v>541015.6</v>
+      </c>
+      <c r="G72" s="22">
+        <v>103.2153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>43374</v>
       </c>
@@ -1820,8 +2290,14 @@
       <c r="E73" s="14">
         <v>112.26529524861201</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F73" s="21">
+        <v>552643.4</v>
+      </c>
+      <c r="G73" s="22">
+        <v>103.7851</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>43466</v>
       </c>
@@ -1837,8 +2313,14 @@
       <c r="E74" s="14">
         <v>112.788320410754</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F74" s="21">
+        <v>563275.9</v>
+      </c>
+      <c r="G74" s="22">
+        <v>103.9208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>43556</v>
       </c>
@@ -1854,8 +2336,14 @@
       <c r="E75" s="14">
         <v>114.439270381434</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="21">
+        <v>576832.80000000005</v>
+      </c>
+      <c r="G75" s="22">
+        <v>105.6844</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>43647</v>
       </c>
@@ -1871,8 +2359,14 @@
       <c r="E76" s="14">
         <v>113.94079432439401</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F76" s="21">
+        <v>578837.69999999995</v>
+      </c>
+      <c r="G76" s="22">
+        <v>105.9829</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>43739</v>
       </c>
@@ -1888,8 +2382,14 @@
       <c r="E77" s="14">
         <v>115.78179127703299</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="21">
+        <v>592387.4</v>
+      </c>
+      <c r="G77" s="22">
+        <v>106.5527</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>43831</v>
       </c>
@@ -1905,8 +2405,14 @@
       <c r="E78" s="14">
         <v>116.340759101602</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F78" s="21">
+        <v>598828.30000000005</v>
+      </c>
+      <c r="G78" s="22">
+        <v>108.6691</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>43922</v>
       </c>
@@ -1922,8 +2428,14 @@
       <c r="E79" s="14">
         <v>118.397887122821</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F79" s="21">
+        <v>554583.6</v>
+      </c>
+      <c r="G79" s="22">
+        <v>109.04900000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>44013</v>
       </c>
@@ -1939,8 +2451,14 @@
       <c r="E80" s="14">
         <v>119.17944207417</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F80" s="21">
+        <v>594916.30000000005</v>
+      </c>
+      <c r="G80" s="22">
+        <v>109.1846</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>44105</v>
       </c>
@@ -1956,8 +2474,14 @@
       <c r="E81" s="14">
         <v>122.56523297245</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F81" s="21">
+        <v>612691.30000000005</v>
+      </c>
+      <c r="G81" s="22">
+        <v>109.48309999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>44197</v>
       </c>
@@ -1973,8 +2497,14 @@
       <c r="E82" s="14">
         <v>124.254097916823</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F82" s="21">
+        <v>635701.1</v>
+      </c>
+      <c r="G82" s="22">
+        <v>111.708</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>44287</v>
       </c>
@@ -1990,8 +2520,14 @@
       <c r="E83" s="14">
         <v>124.43908937680099</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F83" s="21">
+        <v>652829.1</v>
+      </c>
+      <c r="G83" s="22">
+        <v>113.79730000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>44378</v>
       </c>
@@ -2007,8 +2543,14 @@
       <c r="E84" s="14">
         <v>125.906873191484</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F84" s="21">
+        <v>674135.4</v>
+      </c>
+      <c r="G84" s="22">
+        <v>114.93689999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>44470</v>
       </c>
@@ -2024,8 +2566,14 @@
       <c r="E85" s="14">
         <v>127.80160299542401</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F85" s="21">
+        <v>697934.8</v>
+      </c>
+      <c r="G85" s="22">
+        <v>118.003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>44562</v>
       </c>
@@ -2041,8 +2589,14 @@
       <c r="E86" s="14">
         <v>129.59988067281</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F86" s="21">
+        <v>731133.5</v>
+      </c>
+      <c r="G86" s="22">
+        <v>122.48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>44652</v>
       </c>
@@ -2058,8 +2612,14 @@
       <c r="E87" s="14">
         <v>136.18864304905901</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F87" s="21">
+        <v>759750.5</v>
+      </c>
+      <c r="G87" s="22">
+        <v>129.6703</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>44743</v>
       </c>
@@ -2075,8 +2635,14 @@
       <c r="E88" s="14">
         <v>141.102657877431</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F88" s="21">
+        <v>791479.1</v>
+      </c>
+      <c r="G88" s="22">
+        <v>133.76750000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>44835</v>
       </c>
@@ -2092,8 +2658,14 @@
       <c r="E89" s="14">
         <v>147.38535983267701</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F89" s="21">
+        <v>813267.2</v>
+      </c>
+      <c r="G89" s="22">
+        <v>138.67859999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>44927</v>
       </c>
@@ -2109,8 +2681,14 @@
       <c r="E90" s="14">
         <v>150.29476412206299</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F90" s="21">
+        <v>837619.5</v>
+      </c>
+      <c r="G90" s="22">
+        <v>144.29519999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>45017</v>
       </c>
@@ -2126,8 +2704,14 @@
       <c r="E91" s="14">
         <v>153.369561581249</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F91" s="21">
+        <v>849459.4</v>
+      </c>
+      <c r="G91" s="22">
+        <v>147.0085</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>45108</v>
       </c>
@@ -2143,8 +2727,14 @@
       <c r="E92" s="14">
         <v>151.84747137007301</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F92" s="21">
+        <v>856817.1</v>
+      </c>
+      <c r="G92" s="22">
+        <v>146.49299999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>45200</v>
       </c>
@@ -2160,8 +2750,14 @@
       <c r="E93" s="14">
         <v>154.34583014905601</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F93" s="21">
+        <v>868056.7</v>
+      </c>
+      <c r="G93" s="22">
+        <v>147.2799</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>45292</v>
       </c>
@@ -2177,8 +2773,14 @@
       <c r="E94" s="14">
         <v>155.55043293873899</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F94" s="21">
+        <v>881838.5</v>
+      </c>
+      <c r="G94" s="22">
+        <v>148.6908</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>45383</v>
       </c>
@@ -2194,8 +2796,14 @@
       <c r="E95" s="14">
         <v>156.40186902270099</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="21">
+        <v>899717.1</v>
+      </c>
+      <c r="G95" s="22">
+        <v>150.83439999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>45474</v>
       </c>
@@ -2211,8 +2819,14 @@
       <c r="E96" s="14">
         <v>159.00549014379101</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="21">
+        <v>915655.8</v>
+      </c>
+      <c r="G96" s="22">
+        <v>153.2764</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>45566</v>
       </c>
@@ -2228,8 +2842,14 @@
       <c r="E97" s="14">
         <v>160.41444462232499</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F97" s="21">
+        <v>936961.1</v>
+      </c>
+      <c r="G97" s="22">
+        <v>154.416</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>45658</v>
       </c>
@@ -2244,6 +2864,12 @@
       </c>
       <c r="E98" s="14">
         <v>160.646885330206</v>
+      </c>
+      <c r="F98" s="21">
+        <v>944654.7</v>
+      </c>
+      <c r="G98" s="22">
+        <v>156.64089999999999</v>
       </c>
     </row>
   </sheetData>
